--- a/期中考试成绩测试数据.xlsx
+++ b/期中考试成绩测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="期中考试成绩" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -182,6 +182,11 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -659,155 +664,155 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -816,6 +821,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1352,7 +1359,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1644,7 +1651,7 @@
       </c>
     </row>
     <row r="12" ht="15" spans="1:8">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1673,7 +1680,7 @@
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1699,7 +1706,7 @@
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1725,7 +1732,7 @@
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1751,7 +1758,7 @@
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="2" t="s">

--- a/期中考试成绩测试数据.xlsx
+++ b/期中考试成绩测试数据.xlsx
@@ -1359,7 +1359,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
